--- a/画面設計/DB設計(CAS) テーブル定義書 .xlsx
+++ b/画面設計/DB設計(CAS) テーブル定義書 .xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -5312,7 +5312,7 @@
       <c r="E6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>73</v>
       </c>
       <c r="G6" s="34"/>
@@ -5327,7 +5327,9 @@
       <c r="B7" s="33">
         <v>2.0</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="33" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
         <v>75</v>

--- a/画面設計/DB設計(CAS) テーブル定義書 .xlsx
+++ b/画面設計/DB設計(CAS) テーブル定義書 .xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="UjpjHljVENGQc6HixWEtKdRdCuhMDSlFlb3CcwoaOPQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="ksx2r0v8ZHPeQooWy0iaL4GpL4GZBcszM0SU9KeDgoI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="119">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -338,6 +338,15 @@
     </r>
   </si>
   <si>
+    <t>role_mode</t>
+  </si>
+  <si>
+    <t>編集権限モード</t>
+  </si>
+  <si>
+    <t>0:権限なし、1:権限あり</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
@@ -374,12 +383,6 @@
     <t>パスワード忘れた時の質問の回答</t>
   </si>
   <si>
-    <t>role_mode</t>
-  </si>
-  <si>
-    <t>編集権限モード</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -435,7 +438,7 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="MS PGothic"/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
@@ -467,7 +470,7 @@
     </r>
   </si>
   <si>
-    <t>calories</t>
+    <t>calorie</t>
   </si>
   <si>
     <t>カロリー</t>
@@ -486,7 +489,7 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="MS PGothic"/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
@@ -507,7 +510,7 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="MS PGothic"/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
@@ -528,7 +531,7 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="MS PGothic"/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
@@ -705,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -763,7 +766,17 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
   <fills count="4">
@@ -917,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1012,6 +1025,18 @@
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,6 +1055,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1039,7 +1077,7 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3668,8 +3706,8 @@
     <col customWidth="1" min="1" max="1" width="4.0"/>
     <col customWidth="1" min="2" max="3" width="7.38"/>
     <col customWidth="1" min="4" max="4" width="7.5"/>
-    <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="6" width="17.25"/>
+    <col customWidth="1" min="5" max="5" width="21.38"/>
+    <col customWidth="1" min="6" max="6" width="27.38"/>
     <col customWidth="1" min="7" max="7" width="22.25"/>
     <col customWidth="1" min="8" max="8" width="11.0"/>
     <col customWidth="1" min="9" max="9" width="7.5"/>
@@ -4012,12 +4050,14 @@
       <c r="E17" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="44" t="s">
         <v>60</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="40"/>
@@ -4032,52 +4072,52 @@
       <c r="E18" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="45" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="34"/>
-      <c r="H18" s="34" t="s">
-        <v>40</v>
+      <c r="H18" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="40"/>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="15.0" customHeight="1">
       <c r="B19" s="33">
         <v>14.0</v>
       </c>
       <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="45" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="48" t="s">
         <v>64</v>
       </c>
+      <c r="F19" s="49" t="s">
+        <v>65</v>
+      </c>
       <c r="G19" s="34"/>
-      <c r="H19" s="44" t="s">
-        <v>37</v>
+      <c r="H19" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="40"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" ht="15.0" customHeight="1">
       <c r="B20" s="33">
         <v>15.0</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="50" t="s">
         <v>66</v>
       </c>
+      <c r="F20" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="G20" s="34"/>
-      <c r="H20" s="34" t="s">
-        <v>40</v>
+      <c r="H20" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20" s="40"/>
@@ -4090,14 +4130,14 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="33"/>
       <c r="J21" s="40"/>
@@ -4110,38 +4150,38 @@
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="40"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="49" t="s">
-        <v>72</v>
+      <c r="B24" s="53" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="51"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -5245,7 +5285,7 @@
       <c r="F3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="34"/>
@@ -5313,11 +5353,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="40"/>
@@ -5332,14 +5372,14 @@
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="40"/>
@@ -5352,29 +5392,29 @@
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
       <c r="E8" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="40"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="53"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="49" t="s">
-        <v>72</v>
+      <c r="B10" s="53" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="51"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -6477,7 +6517,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
@@ -6532,11 +6572,11 @@
         <v>32</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="40"/>
@@ -6551,10 +6591,10 @@
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
@@ -6562,7 +6602,7 @@
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -6572,11 +6612,11 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="34" t="s">
-        <v>81</v>
+      <c r="E8" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
@@ -6593,14 +6633,14 @@
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="40"/>
@@ -6613,14 +6653,14 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="40"/>
@@ -6633,14 +6673,14 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="40"/>
@@ -6670,61 +6710,80 @@
       <c r="B13" s="33">
         <v>8.0</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="55" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="F13" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="59"/>
       <c r="H13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="55"/>
+        <v>70</v>
+      </c>
+      <c r="I13" s="59"/>
       <c r="J13" s="40"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="49" t="s">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>72</v>
       </c>
-    </row>
+      <c r="G14" s="59"/>
+      <c r="H14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="51"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="53" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="9"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" ht="48.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="9"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" ht="48.75" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+    </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -7704,14 +7763,16 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B16:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B17:K20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -7780,7 +7841,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -7853,14 +7914,14 @@
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="40"/>
@@ -7875,10 +7936,10 @@
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
@@ -7895,60 +7956,79 @@
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
       <c r="E8" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="40"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="53"/>
+      <c r="B9" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="49" t="s">
-        <v>72</v>
-      </c>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="51"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="B11" s="53" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="9"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" ht="42.0" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" ht="42.0" customHeight="1">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+    </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -8928,8 +9008,11 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B12:K15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -8937,7 +9020,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B11:K14"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -8998,16 +9080,16 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="65" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="38">
@@ -9042,7 +9124,7 @@
       <c r="D5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="66" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="41" t="s">
@@ -9071,14 +9153,14 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="67" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>31</v>
@@ -9092,15 +9174,15 @@
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="68" t="s">
         <v>95</v>
       </c>
+      <c r="F7" s="69" t="s">
+        <v>96</v>
+      </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="58" t="s">
-        <v>96</v>
+      <c r="H7" s="67" t="s">
+        <v>97</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="32"/>
@@ -9112,15 +9194,15 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="68" t="s">
         <v>98</v>
       </c>
+      <c r="F8" s="69" t="s">
+        <v>99</v>
+      </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="58" t="s">
-        <v>99</v>
+      <c r="H8" s="67" t="s">
+        <v>100</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="32"/>
@@ -9132,14 +9214,14 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="68" t="s">
         <v>101</v>
       </c>
+      <c r="F9" s="69" t="s">
+        <v>102</v>
+      </c>
       <c r="G9" s="33"/>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="67" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="33"/>
@@ -9152,14 +9234,14 @@
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="61" t="s">
+      <c r="E10" s="68" t="s">
         <v>103</v>
       </c>
+      <c r="F10" s="70" t="s">
+        <v>104</v>
+      </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="67" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="33"/>
@@ -9172,14 +9254,14 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="61" t="s">
+      <c r="E11" s="68" t="s">
         <v>105</v>
       </c>
+      <c r="F11" s="70" t="s">
+        <v>106</v>
+      </c>
       <c r="G11" s="33"/>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="67" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="33"/>
@@ -9192,14 +9274,14 @@
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="61" t="s">
+      <c r="E12" s="68" t="s">
         <v>107</v>
       </c>
+      <c r="F12" s="70" t="s">
+        <v>108</v>
+      </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="67" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="33"/>
@@ -9212,15 +9294,15 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="61" t="s">
+      <c r="E13" s="68" t="s">
         <v>109</v>
       </c>
+      <c r="F13" s="70" t="s">
+        <v>110</v>
+      </c>
       <c r="G13" s="33"/>
-      <c r="H13" s="58" t="s">
-        <v>99</v>
+      <c r="H13" s="67" t="s">
+        <v>100</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="32"/>
@@ -9232,15 +9314,15 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="61" t="s">
+      <c r="E14" s="68" t="s">
         <v>111</v>
       </c>
+      <c r="F14" s="70" t="s">
+        <v>112</v>
+      </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="58" t="s">
-        <v>99</v>
+      <c r="H14" s="67" t="s">
+        <v>100</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="32"/>
@@ -9252,15 +9334,15 @@
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="61" t="s">
+      <c r="E15" s="68" t="s">
         <v>113</v>
       </c>
+      <c r="F15" s="70" t="s">
+        <v>114</v>
+      </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="58" t="s">
-        <v>99</v>
+      <c r="H15" s="67" t="s">
+        <v>100</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="32"/>
@@ -9272,14 +9354,14 @@
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="60" t="s">
+      <c r="E16" s="68" t="s">
         <v>115</v>
       </c>
+      <c r="F16" s="69" t="s">
+        <v>116</v>
+      </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="67" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="33"/>
@@ -9292,14 +9374,14 @@
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="60" t="s">
+      <c r="E17" s="68" t="s">
         <v>117</v>
       </c>
+      <c r="F17" s="69" t="s">
+        <v>118</v>
+      </c>
       <c r="G17" s="33"/>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="67" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="33"/>
@@ -9312,14 +9394,14 @@
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="60" t="s">
+      <c r="E18" s="62" t="s">
         <v>82</v>
       </c>
+      <c r="F18" s="69" t="s">
+        <v>83</v>
+      </c>
       <c r="G18" s="34"/>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="67" t="s">
         <v>40</v>
       </c>
       <c r="I18" s="33"/>
@@ -9332,61 +9414,80 @@
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="60" t="s">
+      <c r="E19" s="68" t="s">
         <v>68</v>
       </c>
+      <c r="F19" s="69" t="s">
+        <v>69</v>
+      </c>
       <c r="G19" s="34"/>
-      <c r="H19" s="58" t="s">
-        <v>69</v>
+      <c r="H19" s="67" t="s">
+        <v>70</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="40"/>
       <c r="K19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="53"/>
+      <c r="B20" s="33">
+        <v>15.0</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="49" t="s">
-        <v>72</v>
-      </c>
+      <c r="B21" s="53"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="51"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="53" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="K23" s="10"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" ht="34.5" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="9"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" ht="34.5" customHeight="1">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+    </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -10366,15 +10467,17 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B22:K25"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B23:K26"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/画面設計/DB設計(CAS) テーブル定義書 .xlsx
+++ b/画面設計/DB設計(CAS) テーブル定義書 .xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="ksx2r0v8ZHPeQooWy0iaL4GpL4GZBcszM0SU9KeDgoI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="ViO4KFo9nA3eMypFU1Bj3y0wrRdmB5Ydcn9nhI3q8PE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="177">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -401,6 +401,63 @@
     <t>SQL QUERY</t>
   </si>
   <si>
+    <t>CREATE TABLE USER_INFO (</t>
+  </si>
+  <si>
+    <t>user_id VARCHAR(32) PRIMARY KEY,       -- ユーザID</t>
+  </si>
+  <si>
+    <t>user_name VARCHAR(10),                 -- 名前</t>
+  </si>
+  <si>
+    <t>gender_id INT,                         -- 性別ID</t>
+  </si>
+  <si>
+    <t>height INT,                            -- 身長</t>
+  </si>
+  <si>
+    <t>weight INT,                            -- 体重</t>
+  </si>
+  <si>
+    <t>has_allergy INT,                       -- アレルギー有無</t>
+  </si>
+  <si>
+    <t>allergy_id_1 INT NOT NULL,             -- アレルギーID_1</t>
+  </si>
+  <si>
+    <t>allergy_id_2 INT NOT NULL,             -- アレルギーID_2</t>
+  </si>
+  <si>
+    <t>allergy_id_3 INT NOT NULL,             -- アレルギーID_3</t>
+  </si>
+  <si>
+    <t>allergy_id_4 INT NOT NULL,             -- アレルギーID_4</t>
+  </si>
+  <si>
+    <t>allergy_id_5 INT NOT NULL,             -- アレルギーID_5</t>
+  </si>
+  <si>
+    <t>role_mode INT,                         -- 編集権限モード</t>
+  </si>
+  <si>
+    <t>password VARCHAR(15),                  -- パスワード</t>
+  </si>
+  <si>
+    <t>security_question_id INT,              -- パスワード忘れた時の質問ID</t>
+  </si>
+  <si>
+    <t>security_question_answer VARCHAR(10),  -- パスワード忘れた時の質問の回答</t>
+  </si>
+  <si>
+    <t>created_at TIMESTAMP,                  -- 登録日時</t>
+  </si>
+  <si>
+    <t>updated_at TIMESTAMP                   -- 更新日時</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="MS PGothic"/>
@@ -428,6 +485,21 @@
     <t>料理ID</t>
   </si>
   <si>
+    <t>CREATE TABLE USER_FAVORITE_RECIPES (</t>
+  </si>
+  <si>
+    <t>user_id VARCHAR(32) NOT NULL,          -- ユーザID</t>
+  </si>
+  <si>
+    <t>recipe_id VARCHAR(8) NOT NULL,        -- 料理ID</t>
+  </si>
+  <si>
+    <t>created_at TIMESTAMP,                 -- 登録日時</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (user_id, recipe_id)    -- ユーザIDと料理IDの組み合わせを主キーとして指定</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="MS PGothic"/>
@@ -539,6 +611,39 @@
     </r>
   </si>
   <si>
+    <t>CREATE TABLE USER_CALORIE_WEIGHT_HISTORY (</t>
+  </si>
+  <si>
+    <t>user_id VARCHAR(32) NOT NULL,            -- ユーザID (外部キー)</t>
+  </si>
+  <si>
+    <t>record_date INT NOT NULL,               -- 年月日 (例: 20250309)</t>
+  </si>
+  <si>
+    <t>calorie INT,                            -- カロリー</t>
+  </si>
+  <si>
+    <t>breakfast_id VARCHAR(8),                -- 朝食ID</t>
+  </si>
+  <si>
+    <t>lunch_id VARCHAR(8),                    -- 昼食ID</t>
+  </si>
+  <si>
+    <t>dinner_id VARCHAR(8),                   -- 夕食ID</t>
+  </si>
+  <si>
+    <t>weight INT,                             -- 体重</t>
+  </si>
+  <si>
+    <t>created_at TIMESTAMP,                   -- 登録日時</t>
+  </si>
+  <si>
+    <t>updated_at TIMESTAMP,                   -- 更新日時</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (user_id, record_date)     -- ユーザIDと年月日の組み合わせを主キーとして指定</t>
+  </si>
+  <si>
     <t xml:space="preserve">Android課題(2025）			</t>
   </si>
   <si>
@@ -563,6 +668,24 @@
     </r>
   </si>
   <si>
+    <t>CREATE TABLE RECIPE_ALLERGIES (</t>
+  </si>
+  <si>
+    <t>recipe_id VARCHAR(8) NOT NULL,           -- 料理ID (外部キー)</t>
+  </si>
+  <si>
+    <t>allergy_id INT NOT NULL,                 -- アレルギーID (外部キー)</t>
+  </si>
+  <si>
+    <t>created_at TIMESTAMP,                    -- 登録日時</t>
+  </si>
+  <si>
+    <t>updated_at TIMESTAMP,                    -- 更新日時</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (recipe_id, allergy_id)     -- 料理IDとアレルギーIDの組み合わせを主キー</t>
+  </si>
+  <si>
     <t>レシピ</t>
   </si>
   <si>
@@ -700,6 +823,57 @@
   <si>
     <t>難易度</t>
   </si>
+  <si>
+    <t>CREATE TABLE RECIPES (</t>
+  </si>
+  <si>
+    <t>recipe_id VARCHAR(8) NOT NULL,                  -- 料理ID (主キー)</t>
+  </si>
+  <si>
+    <t>recipe_name VARCHAR(30),                        -- 料理名</t>
+  </si>
+  <si>
+    <t>image TEXT,                                     -- 画像 (textarea)</t>
+  </si>
+  <si>
+    <t>servings INT NOT NULL,                          -- 人前</t>
+  </si>
+  <si>
+    <t>category_id INT,                                -- カテゴリーID</t>
+  </si>
+  <si>
+    <t>genre_id INT,                                   -- ジャンルID</t>
+  </si>
+  <si>
+    <t>cooking_method_id INT,                          -- 調理方法ID</t>
+  </si>
+  <si>
+    <t>ingredient_info TEXT,                           -- 材料 (textarea)</t>
+  </si>
+  <si>
+    <t>nutrition_info TEXT,                            -- 栄養 (textarea)</t>
+  </si>
+  <si>
+    <t>instructions TEXT,                              -- 作り方 (textarea)</t>
+  </si>
+  <si>
+    <t>cooking_time INT,                               -- 調理時間</t>
+  </si>
+  <si>
+    <t>difficulty INT,                                 -- 難易度</t>
+  </si>
+  <si>
+    <t>calorie INT,                                    -- カロリー</t>
+  </si>
+  <si>
+    <t>created_at TIMESTAMP,                           -- 登録日時</t>
+  </si>
+  <si>
+    <t>updated_at TIMESTAMP,                           -- 更新日時</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (recipe_id)                       -- 料理IDを主キーに設定</t>
+  </si>
 </sst>
 </file>
 
@@ -708,7 +882,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -744,6 +918,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -757,6 +937,12 @@
       <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -930,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -968,7 +1154,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -985,10 +1171,13 @@
     <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,7 +1191,7 @@
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -1042,30 +1231,43 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1077,7 +1279,7 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2593,7 +2795,7 @@
       <c r="B9" s="23">
         <v>6.0</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
       <c r="F9" s="21"/>
@@ -2606,8 +2808,8 @@
       <c r="B10" s="23">
         <v>7.0</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="26"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -2619,8 +2821,8 @@
       <c r="B11" s="23">
         <v>8.0</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="26"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -2632,8 +2834,8 @@
       <c r="B12" s="23">
         <v>9.0</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="26"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -2645,8 +2847,8 @@
       <c r="B13" s="23">
         <v>10.0</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="26"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -2662,8 +2864,8 @@
       <c r="B14" s="23">
         <v>11.0</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="26"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -2673,15 +2875,15 @@
       <c r="B15" s="23">
         <v>12.0</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="26"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" ht="33.75" customHeight="1">
-      <c r="E16" s="31"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -3685,6 +3887,13 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E13:H13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink display="USER_INFO" location="USER_INFO!A1" ref="C4"/>
+    <hyperlink display="USER_FAVORITE_RECIPES" location="USER_FAVORITE_RECIPES!A1" ref="C5"/>
+    <hyperlink display="USER_CALORIE_WEIGHT_HISTORY" location="USER_CALORIE_WEIGHT_HISTORY!A1" ref="C6"/>
+    <hyperlink display="RECIPE_ALLERGIES" location="RECIPE_ALLERGIES!A1" ref="C7"/>
+    <hyperlink display="RECIPES" location="RECIPES!A1" ref="C8"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -3718,58 +3927,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38">
+      <c r="H3" s="35"/>
+      <c r="I3" s="39">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -3780,454 +3989,666 @@
       <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>1.0</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="40"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="33">
+      <c r="B7" s="34">
         <v>2.0</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="33">
+      <c r="B8" s="34">
         <v>3.0</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="33">
+      <c r="B9" s="34">
         <v>4.0</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <v>5.0</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="46" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="40"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="33">
+      <c r="B11" s="34">
         <v>6.0</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="40"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="33">
+      <c r="B12" s="34">
         <v>7.0</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="46" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="33">
+      <c r="B13" s="34">
         <v>8.0</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="33">
+      <c r="B14" s="34">
         <v>9.0</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="46" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="33">
+      <c r="B15" s="34">
         <v>10.0</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="33">
+      <c r="B16" s="34">
         <v>11.0</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="33">
+      <c r="B17" s="34">
         <v>12.0</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="33">
+      <c r="B18" s="34">
         <v>13.0</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="44" t="s">
+      <c r="G18" s="35"/>
+      <c r="H18" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="22"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="B19" s="33">
+      <c r="B19" s="34">
         <v>14.0</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="48" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="22"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="B20" s="33">
+      <c r="B20" s="34">
         <v>15.0</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="50" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="44" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="33">
+      <c r="B21" s="34">
         <v>16.0</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="46" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34" t="s">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="40"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="33">
+      <c r="B22" s="34">
         <v>17.0</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34" t="s">
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
+      <c r="B25" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="9"/>
-      <c r="K26" s="10"/>
+      <c r="B26" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="9"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" ht="72.75" customHeight="1">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
+      <c r="B27" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="K29" s="62"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="K30" s="62"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="K33" s="62"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="K34" s="62"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="K35" s="62"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="K36" s="62"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="K37" s="62"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="K38" s="62"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="K39" s="62"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="K40" s="62"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="K41" s="62"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="K42" s="62"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="K43" s="62"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="65"/>
+    </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
@@ -5187,13 +5608,8 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -5208,7 +5624,6 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B25:K28"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
@@ -5250,58 +5665,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38">
+      <c r="H3" s="35"/>
+      <c r="I3" s="39">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -5312,155 +5727,341 @@
       <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>1.0</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="40"/>
+      <c r="F6" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="33">
+      <c r="B7" s="34">
         <v>2.0</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="40"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="33">
+      <c r="B8" s="34">
         <v>3.0</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="46" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="57"/>
+      <c r="B9" s="67"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="B11" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="B12" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" ht="38.25" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
+      <c r="B13" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="K17" s="62"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="K18" s="62"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="K29" s="62"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
+    </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -6426,7 +7027,7 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -6434,7 +7035,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B11:K14"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6469,55 +7069,55 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38">
+      <c r="H3" s="35"/>
+      <c r="I3" s="39">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
@@ -6531,268 +7131,1839 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>1.0</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="40"/>
+      <c r="F6" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="33">
+      <c r="B7" s="34">
         <v>2.0</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="40" t="s">
-        <v>81</v>
+      <c r="I7" s="34"/>
+      <c r="J7" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="K7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="33">
+      <c r="B8" s="34">
         <v>3.0</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="33">
+      <c r="B9" s="34">
         <v>4.0</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <v>5.0</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="40"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="33">
+      <c r="B11" s="34">
         <v>6.0</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="33">
+      <c r="B12" s="34">
         <v>7.0</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="46" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="33">
+      <c r="B13" s="34">
         <v>8.0</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="34" t="s">
+      <c r="G13" s="69"/>
+      <c r="H13" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="40"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="61">
+      <c r="B14" s="71">
         <v>9.0</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="62" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="B17" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="B18" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="9"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" ht="48.75" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
+      <c r="B19" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="K29" s="62"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="K30" s="62"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.0"/>
+    <col customWidth="1" min="2" max="3" width="7.38"/>
+    <col customWidth="1" min="4" max="4" width="7.5"/>
+    <col customWidth="1" min="5" max="5" width="11.0"/>
+    <col customWidth="1" min="6" max="6" width="20.75"/>
+    <col customWidth="1" min="7" max="7" width="19.0"/>
+    <col customWidth="1" min="8" max="8" width="11.0"/>
+    <col customWidth="1" min="9" max="9" width="7.5"/>
+    <col customWidth="1" min="10" max="10" width="8.0"/>
+    <col customWidth="1" min="11" max="11" width="19.5"/>
+    <col customWidth="1" min="12" max="26" width="11.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="B2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="39">
+        <v>45689.0</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="B4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="B5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="67"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="K17" s="62"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="K18" s="62"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="65"/>
+    </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -7757,22 +9928,8 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B17:K20"/>
+  <mergeCells count="8">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -7780,1246 +9937,7 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="4.0"/>
-    <col customWidth="1" min="2" max="3" width="7.38"/>
-    <col customWidth="1" min="4" max="4" width="7.5"/>
-    <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="6" width="20.75"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="11.0"/>
-    <col customWidth="1" min="9" max="9" width="7.5"/>
-    <col customWidth="1" min="10" max="10" width="8.0"/>
-    <col customWidth="1" min="11" max="11" width="19.5"/>
-    <col customWidth="1" min="12" max="26" width="11.0"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38">
-        <v>45689.0</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="33">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="33">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="57"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" ht="42.0" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="9">
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B12:K15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9053,58 +9971,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="32" t="s">
-        <v>90</v>
+      <c r="B3" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38">
+      <c r="G3" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="39">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -9115,396 +10033,616 @@
       <c r="K4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>1.0</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="67" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="39"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="33">
+      <c r="B7" s="34">
         <v>2.0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="33">
+      <c r="B8" s="34">
         <v>3.0</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="39"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="33">
+      <c r="B9" s="34">
         <v>4.0</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="67" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="39"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <v>5.0</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="67" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="33">
+      <c r="B11" s="34">
         <v>6.0</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="70" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="34">
+        <v>8.0</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="34">
+        <v>9.0</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="34">
+        <v>11.0</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="34">
+        <v>12.0</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="67" t="s">
+      <c r="F18" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="33">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="33">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="39"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="33">
-        <v>9.0</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="39"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="33">
-        <v>10.0</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="33">
-        <v>11.0</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="39"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="33">
-        <v>12.0</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="39"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="33">
-        <v>13.0</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="33">
+      <c r="B19" s="34">
         <v>14.0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="68" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="67" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="33">
+      <c r="B20" s="34">
         <v>15.0</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="62" t="s">
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="34" t="s">
+      <c r="G20" s="69"/>
+      <c r="H20" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="53"/>
+      <c r="B21" s="54"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="55"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="K24" s="10"/>
+      <c r="B24" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="9"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" ht="34.5" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
+      <c r="B25" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="K29" s="62"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="K30" s="62"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="K33" s="62"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="K34" s="62"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="K35" s="62"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="K36" s="62"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="K37" s="62"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="K38" s="62"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="K39" s="62"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="K40" s="62"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="K41" s="62"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="K42" s="62"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="65"/>
+    </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
@@ -10465,11 +11603,8 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -10477,7 +11612,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B23:K26"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/画面設計/DB設計(CAS) テーブル定義書 .xlsx
+++ b/画面設計/DB設計(CAS) テーブル定義書 .xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="ViO4KFo9nA3eMypFU1Bj3y0wrRdmB5Ydcn9nhI3q8PE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="gTvi4Z3LITMTa4m8Sog4RtRvuI8f5rKQvfTsuZgC4mo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="181">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -51,6 +51,9 @@
     <t>ユーザ情報</t>
   </si>
   <si>
+    <t>7/15→列「身長」、「体重」を数値より浮動小数点へ変更。</t>
+  </si>
+  <si>
     <t>USER_FAVORITE_RECIPES</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>ユーザカロリー、体重履歴</t>
+  </si>
+  <si>
+    <t>7/15→列「体重」を数値より浮動小数点へ変更。</t>
   </si>
   <si>
     <r>
@@ -113,6 +119,9 @@
     <t>レシピテーブル</t>
   </si>
   <si>
+    <t>7/15→列「削除フラグ」（数値）を追加</t>
+  </si>
+  <si>
     <t>システム名</t>
   </si>
   <si>
@@ -218,10 +227,19 @@
     <t>身長</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>7/16→数値より変更</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
     <t>体重</t>
+  </si>
+  <si>
+    <t>7/15→数値より変更</t>
   </si>
   <si>
     <t>has_allergy</t>
@@ -404,55 +422,55 @@
     <t>CREATE TABLE USER_INFO (</t>
   </si>
   <si>
-    <t>user_id VARCHAR(32) PRIMARY KEY,       -- ユーザID</t>
-  </si>
-  <si>
-    <t>user_name VARCHAR(10),                 -- 名前</t>
-  </si>
-  <si>
-    <t>gender_id INT,                         -- 性別ID</t>
-  </si>
-  <si>
-    <t>height INT,                            -- 身長</t>
-  </si>
-  <si>
-    <t>weight INT,                            -- 体重</t>
-  </si>
-  <si>
-    <t>has_allergy INT,                       -- アレルギー有無</t>
-  </si>
-  <si>
-    <t>allergy_id_1 INT NOT NULL,             -- アレルギーID_1</t>
-  </si>
-  <si>
-    <t>allergy_id_2 INT NOT NULL,             -- アレルギーID_2</t>
-  </si>
-  <si>
-    <t>allergy_id_3 INT NOT NULL,             -- アレルギーID_3</t>
-  </si>
-  <si>
-    <t>allergy_id_4 INT NOT NULL,             -- アレルギーID_4</t>
-  </si>
-  <si>
-    <t>allergy_id_5 INT NOT NULL,             -- アレルギーID_5</t>
-  </si>
-  <si>
-    <t>role_mode INT,                         -- 編集権限モード</t>
-  </si>
-  <si>
-    <t>password VARCHAR(15),                  -- パスワード</t>
-  </si>
-  <si>
-    <t>security_question_id INT,              -- パスワード忘れた時の質問ID</t>
-  </si>
-  <si>
-    <t>security_question_answer VARCHAR(10),  -- パスワード忘れた時の質問の回答</t>
-  </si>
-  <si>
-    <t>created_at TIMESTAMP,                  -- 登録日時</t>
-  </si>
-  <si>
-    <t>updated_at TIMESTAMP                   -- 更新日時</t>
+    <t>user_id VARCHAR(32) PRIMARY KEY, -- ユーザID</t>
+  </si>
+  <si>
+    <t>user_name VARCHAR(10) NOT NULL, -- 名前</t>
+  </si>
+  <si>
+    <t>gender_id INT, -- 性別ID</t>
+  </si>
+  <si>
+    <t>height DECIMAL(4, 1), -- 身長 (例: 179.3 のように最大4桁、小数点以下1桁)</t>
+  </si>
+  <si>
+    <t>weight DECIMAL(4, 1), -- 体重 (例: 123.4 のように最大4桁、小数点以下1桁)</t>
+  </si>
+  <si>
+    <t>has_allergy INT, -- アレルギー有無</t>
+  </si>
+  <si>
+    <t>allergy_id_1 INT DEFAULT 0 NOT NULL, -- アレルギーID_1 (デフォルト値0を設定)</t>
+  </si>
+  <si>
+    <t>allergy_id_2 INT DEFAULT 0 NOT NULL, -- アレルギーID_2 (デフォルト値0を設定)</t>
+  </si>
+  <si>
+    <t>allergy_id_3 INT DEFAULT 0 NOT NULL, -- アレルギーID_3 (デフォルト値0を設定)</t>
+  </si>
+  <si>
+    <t>allergy_id_4 INT DEFAULT 0 NOT NULL, -- アレルギーID_4 (デフォルト値0を設定)</t>
+  </si>
+  <si>
+    <t>allergy_id_5 INT DEFAULT 0 NOT NULL, -- アレルギーID_5 (デフォルト値0を設定)</t>
+  </si>
+  <si>
+    <t>role_mode INT NOT NULL, -- 編集権限モード</t>
+  </si>
+  <si>
+    <t>password VARCHAR(15) NOT NULL, -- パスワード</t>
+  </si>
+  <si>
+    <t>security_question_id INT, -- パスワード忘れた時の質問ID</t>
+  </si>
+  <si>
+    <t>security_Youtube VARCHAR(10), -- パスワード忘れた時の質問の回答</t>
+  </si>
+  <si>
+    <t>created_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP, -- 登録日時</t>
+  </si>
+  <si>
+    <t>updated_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP -- 更新日時</t>
   </si>
   <si>
     <t>);</t>
@@ -488,16 +506,13 @@
     <t>CREATE TABLE USER_FAVORITE_RECIPES (</t>
   </si>
   <si>
-    <t>user_id VARCHAR(32) NOT NULL,          -- ユーザID</t>
-  </si>
-  <si>
-    <t>recipe_id VARCHAR(8) NOT NULL,        -- 料理ID</t>
-  </si>
-  <si>
-    <t>created_at TIMESTAMP,                 -- 登録日時</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY (user_id, recipe_id)    -- ユーザIDと料理IDの組み合わせを主キーとして指定</t>
+    <t>user_id VARCHAR(32) NOT NULL,   -- ユーザID</t>
+  </si>
+  <si>
+    <t>recipe_id VARCHAR(8) NOT NULL,  -- 料理ID</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (user_id, recipe_id) -- ユーザIDと料理IDの組み合わせを主キーとして指定</t>
   </si>
   <si>
     <r>
@@ -614,34 +629,28 @@
     <t>CREATE TABLE USER_CALORIE_WEIGHT_HISTORY (</t>
   </si>
   <si>
-    <t>user_id VARCHAR(32) NOT NULL,            -- ユーザID (外部キー)</t>
-  </si>
-  <si>
-    <t>record_date INT NOT NULL,               -- 年月日 (例: 20250309)</t>
-  </si>
-  <si>
-    <t>calorie INT,                            -- カロリー</t>
-  </si>
-  <si>
-    <t>breakfast_id VARCHAR(8),                -- 朝食ID</t>
-  </si>
-  <si>
-    <t>lunch_id VARCHAR(8),                    -- 昼食ID</t>
-  </si>
-  <si>
-    <t>dinner_id VARCHAR(8),                   -- 夕食ID</t>
-  </si>
-  <si>
-    <t>weight INT,                             -- 体重</t>
-  </si>
-  <si>
-    <t>created_at TIMESTAMP,                   -- 登録日時</t>
-  </si>
-  <si>
-    <t>updated_at TIMESTAMP,                   -- 更新日時</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY (user_id, record_date)     -- ユーザIDと年月日の組み合わせを主キーとして指定</t>
+    <t>user_id VARCHAR(32) NOT NULL, -- ユーザID (外部キー)</t>
+  </si>
+  <si>
+    <t>record_date INT NOT NULL,     -- 年月日 (例: 20250309)</t>
+  </si>
+  <si>
+    <t>calorie INT,                  -- カロリー</t>
+  </si>
+  <si>
+    <t>breakfast_id VARCHAR(8),      -- 朝食ID</t>
+  </si>
+  <si>
+    <t>lunch_id VARCHAR(8),          -- 昼食ID</t>
+  </si>
+  <si>
+    <t>dinner_id VARCHAR(8),         -- 夕食ID</t>
+  </si>
+  <si>
+    <t>updated_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP, -- 更新日時</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (user_id, record_date) -- ユーザIDと年月日の組み合わせを主キーとして指定</t>
   </si>
   <si>
     <t xml:space="preserve">Android課題(2025）			</t>
@@ -671,19 +680,13 @@
     <t>CREATE TABLE RECIPE_ALLERGIES (</t>
   </si>
   <si>
-    <t>recipe_id VARCHAR(8) NOT NULL,           -- 料理ID (外部キー)</t>
-  </si>
-  <si>
-    <t>allergy_id INT NOT NULL,                 -- アレルギーID (外部キー)</t>
-  </si>
-  <si>
-    <t>created_at TIMESTAMP,                    -- 登録日時</t>
-  </si>
-  <si>
-    <t>updated_at TIMESTAMP,                    -- 更新日時</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY (recipe_id, allergy_id)     -- 料理IDとアレルギーIDの組み合わせを主キー</t>
+    <t>recipe_id VARCHAR(8) NOT NULL, -- 料理ID (外部キー)</t>
+  </si>
+  <si>
+    <t>allergy_id INT NOT NULL,       -- アレルギーID (外部キー)</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY (recipe_id, allergy_id) -- 料理IDとアレルギーIDの組み合わせを主キー</t>
   </si>
   <si>
     <t>レシピ</t>
@@ -824,55 +827,64 @@
     <t>難易度</t>
   </si>
   <si>
+    <t>delete_flg</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>1が削除、0が未削除</t>
+  </si>
+  <si>
+    <t>7/15 追加</t>
+  </si>
+  <si>
     <t>CREATE TABLE RECIPES (</t>
   </si>
   <si>
-    <t>recipe_id VARCHAR(8) NOT NULL,                  -- 料理ID (主キー)</t>
-  </si>
-  <si>
-    <t>recipe_name VARCHAR(30),                        -- 料理名</t>
-  </si>
-  <si>
-    <t>image TEXT,                                     -- 画像 (textarea)</t>
-  </si>
-  <si>
-    <t>servings INT NOT NULL,                          -- 人前</t>
-  </si>
-  <si>
-    <t>category_id INT,                                -- カテゴリーID</t>
-  </si>
-  <si>
-    <t>genre_id INT,                                   -- ジャンルID</t>
-  </si>
-  <si>
-    <t>cooking_method_id INT,                          -- 調理方法ID</t>
-  </si>
-  <si>
-    <t>ingredient_info TEXT,                           -- 材料 (textarea)</t>
-  </si>
-  <si>
-    <t>nutrition_info TEXT,                            -- 栄養 (textarea)</t>
-  </si>
-  <si>
-    <t>instructions TEXT,                              -- 作り方 (textarea)</t>
-  </si>
-  <si>
-    <t>cooking_time INT,                               -- 調理時間</t>
-  </si>
-  <si>
-    <t>difficulty INT,                                 -- 難易度</t>
-  </si>
-  <si>
-    <t>calorie INT,                                    -- カロリー</t>
-  </si>
-  <si>
-    <t>created_at TIMESTAMP,                           -- 登録日時</t>
-  </si>
-  <si>
-    <t>updated_at TIMESTAMP,                           -- 更新日時</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY (recipe_id)                       -- 料理IDを主キーに設定</t>
+    <t>recipe_id VARCHAR(8) PRIMARY KEY, -- 料理ID (主キー)</t>
+  </si>
+  <si>
+    <t>recipe_name VARCHAR(30) NOT NULL, -- 料理名 (必須と想定)</t>
+  </si>
+  <si>
+    <t>image TEXT,                       -- 画像 (textarea)</t>
+  </si>
+  <si>
+    <t>servings INT NOT NULL,            -- 人前</t>
+  </si>
+  <si>
+    <t>category_id INT,                  -- カテゴリーID</t>
+  </si>
+  <si>
+    <t>genre_id INT,                     -- ジャンルID</t>
+  </si>
+  <si>
+    <t>cooking_method_id INT,            -- 調理方法ID</t>
+  </si>
+  <si>
+    <t>ingredient_info TEXT,             -- 材料 (textarea)</t>
+  </si>
+  <si>
+    <t>nutrition_info TEXT,              -- 栄養 (textarea)</t>
+  </si>
+  <si>
+    <t>instructions TEXT,                -- 作り方 (textarea)</t>
+  </si>
+  <si>
+    <t>cooking_time INT,                 -- 調理時間</t>
+  </si>
+  <si>
+    <t>difficulty INT,                   -- 難易度</t>
+  </si>
+  <si>
+    <t>calorie INT,                      -- カロリー</t>
+  </si>
+  <si>
+    <t>updated_at TIMESTAMP DEFAULT CURRENT_TIMESTAMP,  -- 更新日時</t>
+  </si>
+  <si>
+    <t>delete_flg INT                     -- 削除フラグ</t>
   </si>
 </sst>
 </file>
@@ -882,7 +894,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -900,6 +912,11 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
       <sz val="10.0"/>
@@ -945,6 +962,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -962,6 +985,16 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
@@ -1116,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1139,6 +1172,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1153,31 +1189,34 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,10 +1230,13 @@
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1203,27 +1245,33 @@
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1231,43 +1279,49 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1279,12 +1333,22 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,7 +1715,9 @@
       <c r="H23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="16">
+        <v>45854.0</v>
+      </c>
       <c r="K23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1675,16 +1741,16 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -2688,68 +2754,72 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" ht="33.75" customHeight="1">
-      <c r="B4" s="23">
+      <c r="B4" s="24">
         <v>1.0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" ht="33.75" customHeight="1">
-      <c r="B5" s="23">
+      <c r="B5" s="24">
         <v>2.0</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" ht="33.75" customHeight="1">
-      <c r="B6" s="23">
+      <c r="B6" s="24">
         <v>3.0</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="K6" s="28" t="s">
+      <c r="D6" s="28" t="s">
         <v>13</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="K6" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -2758,101 +2828,103 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" ht="33.75" customHeight="1">
-      <c r="B7" s="23">
+      <c r="B7" s="24">
         <v>4.0</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="C7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
       <c r="K7" s="9"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" ht="33.75" customHeight="1">
-      <c r="B8" s="23">
+      <c r="B8" s="24">
         <v>5.0</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="C8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="K8" s="9"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" ht="33.75" customHeight="1">
-      <c r="B9" s="23">
+      <c r="B9" s="24">
         <v>6.0</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="K9" s="9"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" ht="33.75" customHeight="1">
-      <c r="B10" s="23">
+      <c r="B10" s="24">
         <v>7.0</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="K10" s="9"/>
       <c r="P10" s="10"/>
     </row>
     <row r="11" ht="33.75" customHeight="1">
-      <c r="B11" s="23">
+      <c r="B11" s="24">
         <v>8.0</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="K11" s="9"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" ht="33.75" customHeight="1">
-      <c r="B12" s="23">
+      <c r="B12" s="24">
         <v>9.0</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="K12" s="9"/>
       <c r="P12" s="10"/>
     </row>
     <row r="13" ht="33.75" customHeight="1">
-      <c r="B13" s="23">
+      <c r="B13" s="24">
         <v>10.0</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -2861,29 +2933,29 @@
       <c r="P13" s="13"/>
     </row>
     <row r="14" ht="33.75" customHeight="1">
-      <c r="B14" s="23">
+      <c r="B14" s="24">
         <v>11.0</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" ht="33.75" customHeight="1">
-      <c r="B15" s="23">
+      <c r="B15" s="24">
         <v>12.0</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" ht="33.75" customHeight="1">
-      <c r="E16" s="32"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -3927,727 +3999,733 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>20</v>
+      <c r="K2" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="39">
+      <c r="H3" s="37"/>
+      <c r="I3" s="41">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
-        <v>22</v>
+      <c r="J3" s="42">
+        <v>45854.0</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="E5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="F5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="G5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="H5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>1.0</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="45" t="s">
+      <c r="C6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="22"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <v>2.0</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="22"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="34">
+      <c r="B8" s="36">
         <v>3.0</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="36">
+        <v>8.0</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="44"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="36">
+        <v>9.0</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="36">
+        <v>10.0</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="36">
+        <v>11.0</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="36">
+        <v>12.0</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18" s="36">
+        <v>13.0</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="B19" s="36">
+        <v>14.0</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" ht="15.0" customHeight="1">
+      <c r="B20" s="36">
+        <v>15.0</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="34">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="34">
-        <v>9.0</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="34">
-        <v>11.0</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="34">
-        <v>12.0</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="34">
-        <v>13.0</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" ht="15.0" customHeight="1">
-      <c r="B19" s="34">
-        <v>14.0</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="B20" s="34">
-        <v>15.0</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="22"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="34">
+      <c r="B21" s="36">
         <v>16.0</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="34">
+      <c r="B22" s="36">
         <v>17.0</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="22"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="54" t="s">
-        <v>73</v>
+      <c r="B24" s="59" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
+      <c r="B25" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="B26" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="B28" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="B29" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="B30" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="B31" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="K32" s="62"/>
+      <c r="B32" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="B33" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="K33" s="67"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="K34" s="62"/>
+      <c r="B34" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="K35" s="62"/>
+      <c r="B35" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="K35" s="67"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="K36" s="62"/>
+      <c r="B36" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="K37" s="62"/>
+      <c r="B37" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="K37" s="67"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="K38" s="62"/>
+      <c r="B38" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="K38" s="67"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="K39" s="62"/>
+      <c r="B39" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="K39" s="67"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="K40" s="62"/>
+      <c r="B40" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="K40" s="67"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="K41" s="62"/>
+      <c r="B41" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="K41" s="67"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="K42" s="62"/>
+      <c r="B42" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="K42" s="67"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="K43" s="62"/>
+      <c r="B43" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="K43" s="67"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="71"/>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
@@ -5665,402 +5743,402 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>20</v>
+      <c r="K2" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="66" t="s">
+      <c r="B3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="39">
+      <c r="G3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="41">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
-        <v>22</v>
+      <c r="J3" s="37"/>
+      <c r="K3" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="E5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="F5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="G5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="H5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>1.0</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="22"/>
+      <c r="C6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <v>2.0</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="45" t="s">
+      <c r="C7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="73"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="67"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="60" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="K14" s="67"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="K15" s="67"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="K16" s="62"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="K17" s="62"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -7069,55 +7147,57 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>20</v>
+      <c r="K2" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="38" t="s">
+      <c r="B3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="39">
+      <c r="G3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="41">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
-        <v>22</v>
+      <c r="J3" s="74">
+        <v>45853.0</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
@@ -7131,428 +7211,430 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="E5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="F5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="G5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="H5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>1.0</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="22"/>
+      <c r="C6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <v>2.0</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="22"/>
+      <c r="C7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="34">
+      <c r="B8" s="36">
         <v>3.0</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="22"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="34">
+      <c r="B9" s="36">
         <v>4.0</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="22"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="34">
+      <c r="B10" s="36">
         <v>5.0</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="22"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="34">
+      <c r="B11" s="36">
         <v>6.0</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="22"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="34">
+      <c r="B12" s="36">
         <v>7.0</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="22"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="34">
+      <c r="B13" s="36">
         <v>8.0</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="22"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="71">
+      <c r="B14" s="78">
         <v>9.0</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="22"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="54" t="s">
-        <v>73</v>
+      <c r="B16" s="59" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="B17" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="B18" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="B19" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="B26" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="B28" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="65"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -8567,402 +8649,402 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>20</v>
+      <c r="K2" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="39">
+      <c r="B3" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="41">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
-        <v>22</v>
+      <c r="J3" s="37"/>
+      <c r="K3" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="E5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="F5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="G5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="H5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>1.0</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="73"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="K14" s="67"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="34">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="47" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="K15" s="67"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="67"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="K16" s="62"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="K17" s="62"/>
+      <c r="B17" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="B18" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
     </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -9971,680 +10053,715 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="39">
+      <c r="G3" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="41">
         <v>45689.0</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
-        <v>22</v>
+      <c r="J3" s="74">
+        <v>45853.0</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="E5" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="F5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="G5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="H5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>1.0</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="40"/>
+      <c r="C6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <v>2.0</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="79" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="77" t="s">
+      <c r="F7" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="40"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="34">
+      <c r="B8" s="36">
         <v>3.0</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="79" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="77" t="s">
+      <c r="F8" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="40"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="34">
+      <c r="B9" s="36">
         <v>4.0</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="78" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="36">
+        <v>8.0</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="34">
-        <v>8.0</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="40"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="34">
+      <c r="B14" s="36">
         <v>9.0</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="80" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="40"/>
+      <c r="F14" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="34">
+      <c r="B15" s="36">
         <v>10.0</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="80" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="40"/>
+      <c r="F15" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="34">
+      <c r="B16" s="36">
         <v>11.0</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="79" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="40"/>
+      <c r="F16" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="34">
+      <c r="B17" s="36">
         <v>12.0</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="79" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="40"/>
+      <c r="F17" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="34">
+      <c r="B18" s="36">
         <v>13.0</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="34">
+      <c r="B19" s="36">
         <v>14.0</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="34">
+      <c r="B20" s="36">
         <v>15.0</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="22"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="76"/>
+      <c r="H20" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="76"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="54"/>
+      <c r="B21" s="78">
+        <v>16.0</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="88"/>
+      <c r="J21" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="54" t="s">
-        <v>73</v>
-      </c>
+      <c r="B22" s="59"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="B23" s="59" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="B24" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="B25" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="B26" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="B28" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="B29" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="B30" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="B31" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="K32" s="62"/>
+      <c r="B32" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="B33" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="K33" s="67"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="K34" s="62"/>
+      <c r="B34" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="K35" s="62"/>
+      <c r="B35" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="K35" s="67"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="K36" s="62"/>
+      <c r="B36" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="K37" s="62"/>
+      <c r="B37" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="K37" s="67"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="K38" s="62"/>
+      <c r="B38" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="K38" s="67"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="K39" s="62"/>
+      <c r="B39" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="K39" s="67"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="K40" s="62"/>
+      <c r="B40" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="K40" s="67"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="K41" s="62"/>
+      <c r="B41" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="K41" s="67"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="K42" s="62"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="K42" s="67"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="K43" s="67"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="K44" s="67"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="71"/>
+    </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
@@ -11603,8 +11720,10 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -11612,6 +11731,7 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
